--- a/data/trans_bre/IP28_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP28_R-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-80,72%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-35,15%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -0,15</t>
+          <t>-21,06; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; -0,29</t>
+          <t>-16,62; 5,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-80,29; 367,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 134,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>144,58%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>127,7%</t>
+          <t>-80,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>115,75%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>121,74%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,23</t>
+          <t>-1,88; 2,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,22</t>
+          <t>-3,47; -0,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 2,77</t>
+          <t>-1,65; 1,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,86</t>
+          <t>-2,7; -0,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,29; 367,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 713,38</t>
+          <t>-100,0; 134,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>76,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-35,15%</t>
+          <t>101,77%</t>
         </is>
       </c>
     </row>
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; 0,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 0,0</t>
+          <t>-1,1; 2,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 1,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 5,48</t>
+          <t>-0,97; 4,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 512,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-57,62%</t>
+          <t>144,58%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>76,41%</t>
+          <t>127,7%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-39,6%</t>
+          <t>115,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>101,77%</t>
+          <t>121,74%</t>
         </is>
       </c>
     </row>
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,66</t>
+          <t>-0,52; 3,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,79</t>
+          <t>-0,38; 5,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,09</t>
+          <t>-0,64; 2,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 4,48</t>
+          <t>-0,67; 3,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 512,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,41; 713,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">

--- a/data/trans_bre/IP28_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP28_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 0,0</t>
+          <t>-22,1; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,02</t>
+          <t>-2,4; 2,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 4,63</t>
+          <t>-2,17; 4,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,44</t>
+          <t>-3,35; 1,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 5,41</t>
+          <t>-0,61; 5,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,23</t>
+          <t>-2,0; 2,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -0,15</t>
+          <t>-3,46; -0,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,64</t>
+          <t>-1,64; 1,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; -0,29</t>
+          <t>-3,3; -0,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-80,29; 367,8</t>
+          <t>-82,22; 325,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 134,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 0,66</t>
+          <t>-3,74; 0,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,79</t>
+          <t>-1,07; 2,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,09</t>
+          <t>-2,58; 1,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 4,48</t>
+          <t>-0,9; 4,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 512,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,73; —</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,23</t>
+          <t>-0,59; 3,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,22</t>
+          <t>-0,51; 4,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 2,77</t>
+          <t>-0,68; 2,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,86</t>
+          <t>-0,67; 3,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 713,38</t>
+          <t>-41,67; 627,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,11</t>
+          <t>-0,86; 1,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,66</t>
+          <t>-0,73; 1,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,84</t>
+          <t>-0,86; 0,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,7</t>
+          <t>-0,56; 1,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,44; 160,18</t>
+          <t>-53,2; 151,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,17; 152,11</t>
+          <t>-36,26; 159,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-64,61; 155,35</t>
+          <t>-63,28; 188,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,94; 275,5</t>
+          <t>-44,98; 288,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP28_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP28_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,1; 0,0</t>
+          <t>-22,66; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 5,48</t>
+          <t>-15,99; 5,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,15</t>
+          <t>-2,39; 2,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 4,67</t>
+          <t>-1,77; 4,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 1,38</t>
+          <t>-2,72; 1,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 5,18</t>
+          <t>-0,56; 5,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,12</t>
+          <t>-1,83; 2,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; -0,11</t>
+          <t>-3,75; -0,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,59</t>
+          <t>-1,66; 1,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; -0,31</t>
+          <t>-2,6; -0,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-82,22; 325,13</t>
+          <t>-82,23; 316,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 214,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,66</t>
+          <t>-3,83; 0,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 2,86</t>
+          <t>-1,08; 2,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,07</t>
+          <t>-2,52; 1,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,58</t>
+          <t>-1,11; 4,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 263,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,73; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,09</t>
+          <t>-0,56; 3,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 4,99</t>
+          <t>-0,28; 5,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,83</t>
+          <t>-0,65; 3,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,6</t>
+          <t>-0,78; 3,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-41,67; 627,23</t>
+          <t>-33,44; 840,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,1</t>
+          <t>-0,86; 1,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,72</t>
+          <t>-0,82; 1,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,95</t>
+          <t>-0,89; 0,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,67</t>
+          <t>-0,44; 1,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,2; 151,39</t>
+          <t>-53,32; 139,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,26; 159,01</t>
+          <t>-40,54; 131,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,28; 188,91</t>
+          <t>-60,41; 160,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 288,83</t>
+          <t>-39,76; 281,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP28_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP28_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-35,15%</t>
+          <t>119,79%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,0; 1,77</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 2,85</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 1,71</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 4,57</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-22,66; 0,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-15,99; 5,46</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 380,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,95%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,21%</t>
+          <t>-80,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-48,75%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>240,58%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 2,1</t>
+          <t>-1,88; 2,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 4,49</t>
+          <t>-3,47; -0,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 1,37</t>
+          <t>-1,65; 1,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 5,23</t>
+          <t>-2,6; -0,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,29; 367,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 134,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>-57,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-80,72%</t>
+          <t>76,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,53%</t>
+          <t>-39,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>83,08%</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,05</t>
+          <t>-3,58; 0,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,75; -0,2</t>
+          <t>-1,1; 2,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,59</t>
+          <t>-2,58; 1,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; -0,29</t>
+          <t>-1,22; 3,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-82,23; 316,05</t>
+          <t>-100,0; 512,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 214,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-57,62%</t>
+          <t>144,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>76,41%</t>
+          <t>127,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-39,6%</t>
+          <t>115,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>101,77%</t>
+          <t>116,57%</t>
         </is>
       </c>
     </row>
@@ -968,32 +968,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,66</t>
+          <t>-0,52; 3,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,81</t>
+          <t>-0,38; 5,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 1,06</t>
+          <t>-0,64; 2,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 4,35</t>
+          <t>-0,74; 3,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 263,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,41; 713,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>144,58%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>127,7%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>115,75%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>121,74%</t>
+          <t>46,56%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,24</t>
+          <t>-0,92; 1,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,51</t>
+          <t>-0,87; 1,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,04</t>
+          <t>-0,95; 0,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,59</t>
+          <t>-0,57; 1,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,44; 160,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 840,63</t>
+          <t>-41,17; 152,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,61; 155,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,02; 272,34</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,98%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>21,9%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>48,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 1,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 1,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 0,87</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 1,63</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-53,32; 139,97</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-40,54; 131,53</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-60,41; 160,48</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-39,76; 281,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
